--- a/templates/thongkedoanvaotheocanhan.xlsx
+++ b/templates/thongkedoanvaotheocanhan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -32,12 +32,21 @@
   </si>
   <si>
     <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Trưởng đoàn</t>
+  </si>
+  <si>
+    <t>Đơn vị tiếp</t>
+  </si>
+  <si>
+    <t>Đoàn nước ngoài</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,6 +188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,6 +240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,40 +433,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F3"/>
+  <dimension ref="A3:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="86.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="86.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/templates/thongkedoanvaotheocanhan.xlsx
+++ b/templates/thongkedoanvaotheocanhan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -41,12 +41,15 @@
   </si>
   <si>
     <t>Đoàn nước ngoài</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,23 +191,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,23 +226,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,25 +402,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I3"/>
+  <dimension ref="A3:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="86.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
+    <col min="4" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="86.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,24 +429,27 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
